--- a/biology/Médecine/Jacques_Aubert_(médecin)/Jacques_Aubert_(médecin).xlsx
+++ b/biology/Médecine/Jacques_Aubert_(médecin)/Jacques_Aubert_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_Aubert_(m%C3%A9decin)</t>
+          <t>Jacques_Aubert_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques ou Jaques Aubert  né vers 1500 à Laval[1], dans le Comté de Laval ou à Montoire[2] dans le Vendômois[3] et mort à Lausanne en 1588[4], est un médecin français. Le Corvaisier[5] indique qu'Ambroise Paré « avait pour contemporains et compatriotes plusieurs excellents médecins, tels qu'étaient Jacques Aubert, qui exerçait avec réputation la médecine à Lausanne, etc.,etc. ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques ou Jaques Aubert  né vers 1500 à Laval, dans le Comté de Laval ou à Montoire dans le Vendômois et mort à Lausanne en 1588, est un médecin français. Le Corvaisier indique qu'Ambroise Paré « avait pour contemporains et compatriotes plusieurs excellents médecins, tels qu'étaient Jacques Aubert, qui exerçait avec réputation la médecine à Lausanne, etc.,etc. ».
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_Aubert_(m%C3%A9decin)</t>
+          <t>Jacques_Aubert_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le doute de son origine provient de deux références dans la Bibliothèque française de La Croix du Maine:
 à la lettre A: Aubert, natif du pays du Maine, médecin à Lausanne, l'an 1570. Il a écrit quelques traités de médecine, imprimés à Lausanne, chez François Le Preux..
-Plus loin, à la lettre J, La Croix du Maine publie la notice suivante: Jacques Aubert, médecin vendômois. Il a écrit des Natures et Complexions des hommes et d'une chacune partie d'iceux et aussi des signes par lesquels on peut discerner la diversité d'icelles[6].
-Il effectue ses études de médecine, probablement à Montpellier. Médecin traditionaliste, adepte de la pensée aristotélicienne, il pratique tout d'abord à Lyon avant de partir pour Genève, Lausanne, Genève à nouveau en 1573, Neuchâtel, avant de s'installer définitivement à Lausanne en 1579[4]. Il  participe à une querelle contre les paracelsistes.
+Plus loin, à la lettre J, La Croix du Maine publie la notice suivante: Jacques Aubert, médecin vendômois. Il a écrit des Natures et Complexions des hommes et d'une chacune partie d'iceux et aussi des signes par lesquels on peut discerner la diversité d'icelles.
+Il effectue ses études de médecine, probablement à Montpellier. Médecin traditionaliste, adepte de la pensée aristotélicienne, il pratique tout d'abord à Lyon avant de partir pour Genève, Lausanne, Genève à nouveau en 1573, Neuchâtel, avant de s'installer définitivement à Lausanne en 1579. Il  participe à une querelle contre les paracelsistes.
 </t>
         </is>
       </c>
